--- a/student-project-ME485/docman-cyclingmodel-1812/Hip, Knee, Ankle Joint Angles.xlsx
+++ b/student-project-ME485/docman-cyclingmodel-1812/Hip, Knee, Ankle Joint Angles.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Time</t>
   </si>
@@ -132,6 +132,39 @@
   <si>
     <t>Min</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -174,11 +207,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -192,6 +231,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,16 +565,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -45734,21 +45779,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0">
         <v>83.343641079999998</v>
@@ -45762,7 +45807,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0">
         <v>52.544708413260025</v>
@@ -45776,7 +45821,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0">
         <v>36.770650609999997</v>

--- a/student-project-ME485/docman-cyclingmodel-1812/Hip, Knee, Ankle Joint Angles.xlsx
+++ b/student-project-ME485/docman-cyclingmodel-1812/Hip, Knee, Ankle Joint Angles.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Time</t>
   </si>
@@ -165,6 +165,39 @@
   <si>
     <t>Min</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Hip</t>
+  </si>
+  <si>
+    <t>Knee</t>
+  </si>
+  <si>
+    <t>Ankle</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -213,11 +246,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -237,6 +276,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,16 +610,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -45779,21 +45824,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B2" s="0">
         <v>83.343641079999998</v>
@@ -45807,7 +45852,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B3" s="0">
         <v>52.544708413260025</v>
@@ -45821,7 +45866,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B4" s="0">
         <v>36.770650609999997</v>
